--- a/fixtures/02 - vendors.xlsx
+++ b/fixtures/02 - vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127E4D9E-D97A-4D43-86B1-A84D3DF846E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01D1C06-AFF4-406E-9E35-35D8BE385B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1725" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="2160" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>tab</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>KeepPower</t>
+  </si>
+  <si>
+    <t>Rocket Girl</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AEBD79-8DB9-48DF-B83D-337964022B0C}">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,172 +1030,177 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A95">
-    <sortCondition ref="A94:A95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A96">
+    <sortCondition ref="A90:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixtures/02 - vendors.xlsx
+++ b/fixtures/02 - vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01D1C06-AFF4-406E-9E35-35D8BE385B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099784F5-CF42-4A17-9111-88EB67EC9002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="2160" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>tab</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>KeepPower</t>
-  </si>
-  <si>
-    <t>Rocket Girl</t>
   </si>
 </sst>
 </file>
@@ -707,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AEBD79-8DB9-48DF-B83D-337964022B0C}">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,177 +1027,172 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A96">
-    <sortCondition ref="A90:A96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A95">
+    <sortCondition ref="A61:A95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixtures/02 - vendors.xlsx
+++ b/fixtures/02 - vendors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099784F5-CF42-4A17-9111-88EB67EC9002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB6BFB-7ED0-46E7-83D8-6C8E592A5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1605" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>tab</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>KeepPower</t>
+  </si>
+  <si>
+    <t>Antimatter</t>
+  </si>
+  <si>
+    <t>KTS</t>
   </si>
 </sst>
 </file>
@@ -704,10 +710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AEBD79-8DB9-48DF-B83D-337964022B0C}">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,438 +768,451 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A95">
-    <sortCondition ref="A61:A95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A97">
+    <sortCondition ref="A91:A97"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="A59" r:id="rId1" display="https://www.eliquidshop.cz/my-vape/" xr:uid="{0A858FDB-03F7-42A6-B5C0-320CB89B5D04}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/fixtures/02 - vendors.xlsx
+++ b/fixtures/02 - vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB6BFB-7ED0-46E7-83D8-6C8E592A5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E989CA06-59DE-4376-8F27-A35FD4F97328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1605" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1260" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>tab</t>
   </si>
@@ -294,9 +294,6 @@
     <t>vendor</t>
   </si>
   <si>
-    <t>AEON</t>
-  </si>
-  <si>
     <t>AllianceTech Vapor</t>
   </si>
   <si>
@@ -337,6 +334,12 @@
   </si>
   <si>
     <t>KTS</t>
+  </si>
+  <si>
+    <t>Tobacco Town</t>
+  </si>
+  <si>
+    <t>Aeon</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AEBD79-8DB9-48DF-B83D-337964022B0C}">
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +751,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -758,17 +761,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -823,7 +826,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -893,7 +896,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -913,7 +916,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -958,7 +961,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -968,12 +971,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -983,7 +986,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -1048,7 +1051,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -1113,7 +1116,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -1128,87 +1131,92 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A97">
-    <sortCondition ref="A91:A97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A98">
+    <sortCondition ref="A92:A98"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A59" r:id="rId1" display="https://www.eliquidshop.cz/my-vape/" xr:uid="{0A858FDB-03F7-42A6-B5C0-320CB89B5D04}"/>
